--- a/comparison_results/PSO_PID_With_Disturbance_Test_1.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_1.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03225744856697357</v>
+        <v>0.03250287296431181</v>
       </c>
       <c r="C2" t="n">
         <v>1.121121121121121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4908324602141079</v>
+        <v>0.5612533795222419</v>
       </c>
       <c r="E2" t="n">
         <v>0.7307307307307307</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01386618614164328</v>
+        <v>0.0144998504673398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07976090167247017</v>
+        <v>0.08111890208330683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.558319720939207</v>
+        <v>0.564748691356338</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1841962656758236</v>
+        <v>0.1846991146307106</v>
       </c>
       <c r="J2" t="n">
-        <v>11.00269008870973</v>
+        <v>10.92821940308832</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9548820483612331</v>
+        <v>0.9544846663810089</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>8.138307625969304</v>
+        <v>0.1474543990004391</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07581221547134308</v>
+        <v>0.09944804180162192</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2590745963754465</v>
+        <v>0.7861822187481274</v>
       </c>
       <c r="P2" t="n">
-        <v>9.984385216585292</v>
+        <v>7.147086979140992</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03524784702996665</v>
+        <v>0.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.029964333864949</v>
+        <v>1.671173885564363</v>
       </c>
       <c r="S2" t="n">
-        <v>1.135646287774308</v>
+        <v>8.249317606992586</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08111900268827586</v>
+        <v>0.001425800245731946</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3720360455208208</v>
+        <v>1.323295998962957</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06049245392208452</v>
+        <v>0.06026724409972818</v>
       </c>
       <c r="C3" t="n">
-        <v>2.202202202202202</v>
+        <v>2.192192192192192</v>
       </c>
       <c r="D3" t="n">
-        <v>4.300149454723678</v>
+        <v>4.297022378350035</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0113881496401787</v>
+        <v>0.01167974381250311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05885838599356005</v>
+        <v>0.05867885712431945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.499664043508784</v>
+        <v>0.4984854904292231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1675310350798893</v>
+        <v>0.1670482896857583</v>
       </c>
       <c r="J3" t="n">
-        <v>14.83321672027209</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>0.953950142784292</v>
+        <v>0.9533357909839577</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9175805016619212</v>
+        <v>2.6835785894139</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001809857333961261</v>
+        <v>0.1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1452837621357795</v>
+        <v>0.1</v>
       </c>
       <c r="P3" t="n">
-        <v>8.880031376137653</v>
+        <v>0.4968997213307082</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.103595962877741</v>
+        <v>0.3208154106786869</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3522627040486789</v>
+        <v>6.374101602007755</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01550415585367231</v>
+        <v>0.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.229995713266199</v>
+        <v>0.1824581807645821</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03268816175053897</v>
+        <v>0.06004015489142833</v>
       </c>
       <c r="C4" t="n">
-        <v>1.161161161161161</v>
+        <v>2.192192192192192</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1805292462425889</v>
+        <v>4.098386337297932</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01488698942390423</v>
+        <v>0.0107332469918441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08424994627300685</v>
+        <v>0.06133463213404767</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5732253571461685</v>
+        <v>0.5087687053456225</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1863817236603011</v>
+        <v>0.1681125756549224</v>
       </c>
       <c r="J4" t="n">
-        <v>10.65829073973942</v>
+        <v>14.79948383602844</v>
       </c>
       <c r="K4" t="n">
-        <v>0.954321728504358</v>
+        <v>0.9550359910930699</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>9.99614435127882</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03776557433312909</v>
+        <v>0.09783671167758548</v>
       </c>
       <c r="O4" t="n">
-        <v>0.101658202772767</v>
+        <v>0.1</v>
       </c>
       <c r="P4" t="n">
-        <v>3.688384636164799</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009627175427892504</v>
+        <v>0.02380778575517919</v>
       </c>
       <c r="R4" t="n">
-        <v>1.954695051772341</v>
+        <v>0.1207988805967091</v>
       </c>
       <c r="S4" t="n">
-        <v>3.673803629464123</v>
+        <v>9.914125268986556</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08561263213041834</v>
+        <v>0.07750608155928013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1908476998444641</v>
+        <v>1.715018573893034</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06013668928294529</v>
+        <v>0.03249401147097217</v>
       </c>
       <c r="C5" t="n">
-        <v>2.192192192192192</v>
+        <v>1.141141141141141</v>
       </c>
       <c r="D5" t="n">
-        <v>4.182910142034024</v>
+        <v>0.3376214442751602</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01241435044814069</v>
+        <v>0.01487608403277383</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05959903919040044</v>
+        <v>0.08235662471495135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5046287279927327</v>
+        <v>0.566787067420621</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1671791273548667</v>
+        <v>0.1853711605262578</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>10.82195309738139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9523228479400775</v>
+        <v>0.954154410136733</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.208782926100179</v>
+        <v>9.773138429131567</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06972095696795604</v>
+        <v>0.001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.448522908477856</v>
+        <v>1.722326205699434</v>
       </c>
       <c r="P5" t="n">
-        <v>2.832092850680187</v>
+        <v>0.7082021392094722</v>
       </c>
       <c r="Q5" t="n">
         <v>0.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1</v>
+        <v>1.518204008693859</v>
       </c>
       <c r="S5" t="n">
-        <v>9.933893715321092</v>
+        <v>4.120769916721381</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009339044508385902</v>
+        <v>0.001</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4122510341489204</v>
+        <v>0.5996507393630923</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05981445725331738</v>
+        <v>0.03263500212001562</v>
       </c>
       <c r="C6" t="n">
-        <v>2.182182182182182</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D6" t="n">
-        <v>4.075008101306765</v>
+        <v>0.2969561048652647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01171695395618493</v>
+        <v>0.01429001009966828</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06151650195936605</v>
+        <v>0.08275201367834278</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5101132263536001</v>
+        <v>0.5681036536794674</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1675669449101642</v>
+        <v>0.1857752629319839</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>10.74380791582661</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9535298557324103</v>
+        <v>0.9545905468970205</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1788451765236295</v>
+        <v>1.297250061956338</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6814593178745209</v>
+        <v>1.612520042175724</v>
       </c>
       <c r="P6" t="n">
-        <v>5.78212081165424</v>
+        <v>6.519682031224741</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1</v>
+        <v>0.07375730989278489</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6150405034908207</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>8.383465447653043</v>
+        <v>1.883583633256109</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04382552972645196</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03290752033402895</v>
+        <v>0.03247911295119833</v>
       </c>
       <c r="C7" t="n">
-        <v>1.181181181181181</v>
+        <v>1.131131131131131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08852185144119229</v>
+        <v>0.4442620101448247</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7707707707707707</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01522508022864186</v>
+        <v>0.01353820806633593</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08514992660992639</v>
+        <v>0.08112238639829804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5730635631908926</v>
+        <v>0.5654154659930843</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1869621266963087</v>
+        <v>0.1849457115592756</v>
       </c>
       <c r="J7" t="n">
-        <v>10.55807941201562</v>
+        <v>10.86814299026812</v>
       </c>
       <c r="K7" t="n">
-        <v>0.954377004931892</v>
+        <v>0.9557240149416593</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.401180192119925</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05044541302199344</v>
+        <v>0.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9652922800684769</v>
+        <v>0.1004600402452615</v>
       </c>
       <c r="P7" t="n">
-        <v>5.457033340722309</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04518258617442966</v>
+        <v>0.09727646382725062</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6869307662640073</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>7.801540526222046</v>
+        <v>0.8209746209299627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05546954296777998</v>
+        <v>0.001</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7633148070511994</v>
+        <v>0.1508673393797557</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0601163695889556</v>
+        <v>0.03268490172564179</v>
       </c>
       <c r="C8" t="n">
-        <v>2.192192192192192</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D8" t="n">
-        <v>4.135409478234586</v>
+        <v>0.3081072406388108</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01173439322046132</v>
+        <v>0.01422457386983574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06130127492920241</v>
+        <v>0.08290250429857771</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5089266092711567</v>
+        <v>0.5698832797033113</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1675315103035367</v>
+        <v>0.1858635069743745</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>10.72637539517221</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9534993600807398</v>
+        <v>0.9551685563855588</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1</v>
+        <v>0.3875338577229952</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0.0421883318433067</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.840928528918694</v>
       </c>
       <c r="P8" t="n">
-        <v>6.711961202272152</v>
+        <v>8.82489136256503</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09894856224708827</v>
+        <v>0.05499329306837486</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5857478829083651</v>
+        <v>1.898703771854481</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1</v>
+        <v>4.92258659960177</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1</v>
+        <v>0.0862884914551844</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1</v>
+        <v>1.825369235010819</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0601815812457883</v>
+        <v>0.1439788626543146</v>
       </c>
       <c r="C9" t="n">
-        <v>2.192192192192192</v>
+        <v>6.526526526526527</v>
       </c>
       <c r="D9" t="n">
-        <v>4.281179500118948</v>
+        <v>0.547652087552386</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.960960960960961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01170391705390387</v>
+        <v>0.01394294209605686</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05779626973018203</v>
+        <v>0.1432931048761917</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4952400522216979</v>
+        <v>0.766217954628139</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1668711775864791</v>
+        <v>0.2105090332673697</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>6.585939318237885</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9536013554502507</v>
+        <v>0.9619808865584073</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.925663461468879</v>
       </c>
       <c r="M9" t="n">
-        <v>8.140235878902093</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003921087598862667</v>
+        <v>0.004594457328637534</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0.7073585970478674</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3744223020212925</v>
+        <v>2.973870896688324</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06660611231337439</v>
+        <v>0.0197434153362345</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5743511771767426</v>
+        <v>0.6395320763647923</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1</v>
+        <v>5.500914513171209</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001650467513538417</v>
+        <v>0.06224566268388747</v>
       </c>
       <c r="U9" t="n">
-        <v>1.905908149222693</v>
+        <v>1.269706500770422</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06013742302852226</v>
+        <v>0.1205726972148837</v>
       </c>
       <c r="C10" t="n">
-        <v>2.172172172172172</v>
+        <v>5.145145145145145</v>
       </c>
       <c r="D10" t="n">
-        <v>4.394079277385243</v>
+        <v>0.6472994570759782</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5205205205205206</v>
+        <v>1.551551551551551</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01089632390287915</v>
+        <v>0.01043938534782578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05849656757364462</v>
+        <v>0.2441568993405212</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5036561083244304</v>
+        <v>0.9940169334523794</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1669455748628882</v>
+        <v>0.2398444458150707</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>5.029515453304966</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9547949152098898</v>
+        <v>0.9640563924345953</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.40493903169054</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>1.496076481530185</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09692572806031294</v>
+        <v>0.04704669050261066</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1</v>
+        <v>1.731175733082145</v>
       </c>
       <c r="P10" t="n">
-        <v>9.717346475835427</v>
+        <v>1.067317061830713</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001</v>
+        <v>0.06065311199295305</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>0.2100334203332226</v>
       </c>
       <c r="S10" t="n">
-        <v>1.620976823273323</v>
+        <v>0.6075625536911535</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02367958191949548</v>
+        <v>0.06852550562954636</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.679805600661812</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03287631188943035</v>
+        <v>0.03257725939915094</v>
       </c>
       <c r="C11" t="n">
-        <v>1.171171171171171</v>
+        <v>1.141141141141141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1796179105065576</v>
+        <v>0.3436436992281244</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01452874503947708</v>
+        <v>0.01424582391673783</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08454772345306587</v>
+        <v>0.0825559002116712</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5724244202850282</v>
+        <v>0.5714542517734557</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1868066220518298</v>
+        <v>0.1855579569747463</v>
       </c>
       <c r="J11" t="n">
-        <v>10.54225990400265</v>
+        <v>10.77286517548409</v>
       </c>
       <c r="K11" t="n">
-        <v>0.955082575153139</v>
+        <v>0.9550535406170527</v>
       </c>
       <c r="L11" t="n">
-        <v>4.971707439097039</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>7.704453643959894</v>
+        <v>3.897685641956242</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03508262731649938</v>
+        <v>0.08554566465375958</v>
       </c>
       <c r="O11" t="n">
-        <v>1.694907186380501</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.039136214280943</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06921884169074505</v>
+        <v>0.0626664343330183</v>
       </c>
       <c r="R11" t="n">
-        <v>1.963510691855124</v>
+        <v>1.076850585453709</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1796943580330212</v>
+        <v>5.074662172503976</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02621064775735308</v>
+        <v>0.03801662177659554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8558377587411647</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0600370631149162</v>
+        <v>0.06009956546389539</v>
       </c>
       <c r="C12" t="n">
-        <v>2.202202202202202</v>
+        <v>2.152152152152152</v>
       </c>
       <c r="D12" t="n">
-        <v>3.955306051408569</v>
+        <v>4.544353638911436</v>
       </c>
       <c r="E12" t="n">
         <v>0.5205205205205206</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01362257399948075</v>
+        <v>0.01004863056406244</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06254929355765337</v>
+        <v>0.05892899105784485</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5138074137806059</v>
+        <v>0.5076160797788278</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1677205371950554</v>
+        <v>0.1669343419345303</v>
       </c>
       <c r="J12" t="n">
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9510223321108298</v>
+        <v>0.9557944414867372</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5.654530327192483</v>
+        <v>6.747253212925254</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002551426749386091</v>
+        <v>0.009746079118141973</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6013400220687936</v>
+        <v>1.666103161912491</v>
       </c>
       <c r="P12" t="n">
-        <v>2.771874878025391</v>
+        <v>2.829891338962906</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.008915113018771542</v>
+        <v>0.002519666315273934</v>
       </c>
       <c r="R12" t="n">
-        <v>1.449385056414801</v>
+        <v>0.5950965859133925</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>0.5620452023040512</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01166922137566817</v>
+        <v>0.08232793255898614</v>
       </c>
       <c r="U12" t="n">
-        <v>1.411896869874717</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05974463594113162</v>
+        <v>0.03223398397352191</v>
       </c>
       <c r="C13" t="n">
-        <v>2.142142142142142</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D13" t="n">
-        <v>4.484860975475624</v>
+        <v>0.6629319308461445</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007381745453256994</v>
+        <v>0.01466394878745659</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05859030160224407</v>
+        <v>0.0796887615673214</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5053686225149379</v>
+        <v>0.5605310346935779</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1668615174536848</v>
+        <v>0.1839016615300776</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>11.06727389041392</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9600394029911031</v>
+        <v>0.9541140723513398</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>8.042138642676047</v>
+        <v>0.1167894484914389</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04352351959622929</v>
+        <v>0.03548112267115481</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4708645698867707</v>
+        <v>1.44495819227889</v>
       </c>
       <c r="P13" t="n">
-        <v>8.303290779744923</v>
+        <v>8.948079078216786</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08342284962438881</v>
+        <v>0.002291069635270826</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2689702207325034</v>
+        <v>1.662462596593419</v>
       </c>
       <c r="S13" t="n">
-        <v>4.600972347920845</v>
+        <v>1.835279491138883</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06729227270723878</v>
+        <v>0.004733935422234229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1</v>
+        <v>1.706566020086364</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05998063257624855</v>
+        <v>0.03239315175279244</v>
       </c>
       <c r="C14" t="n">
-        <v>2.182182182182182</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D14" t="n">
-        <v>4.092766143508886</v>
+        <v>0.6606431202385465</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01058664007621359</v>
+        <v>0.01425524295817177</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06409059679194982</v>
+        <v>0.07999702794882446</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5177942043223623</v>
+        <v>0.5579774081600115</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1680814655629069</v>
+        <v>0.1842844970792818</v>
       </c>
       <c r="J14" t="n">
-        <v>14.99918677226331</v>
+        <v>10.98315019818851</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9550773355045012</v>
+        <v>0.9548211241441306</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.997710485949746</v>
       </c>
       <c r="M14" t="n">
-        <v>5.837034717031465</v>
+        <v>2.777944089148684</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0935602843227042</v>
+        <v>0.03666352185150115</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5336194224669545</v>
+        <v>1.985298252521993</v>
       </c>
       <c r="P14" t="n">
-        <v>2.292201554132407</v>
+        <v>5.049359956172313</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05384951603276533</v>
+        <v>0.04800857424630017</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1.631305656252124</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>8.064741034438834</v>
       </c>
       <c r="T14" t="n">
-        <v>0.001020501737012729</v>
+        <v>0.009509337500600687</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1</v>
+        <v>0.2231803731934711</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03239348509854953</v>
+        <v>0.03262207591667775</v>
       </c>
       <c r="C15" t="n">
-        <v>1.101101101101101</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7489646637036884</v>
+        <v>0.2811416782310339</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01384952992898541</v>
+        <v>0.01512017184827088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07981343136599582</v>
+        <v>0.08318957805676412</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5596435440616101</v>
+        <v>0.5691754712568048</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1841316726744816</v>
+        <v>0.1858427342352885</v>
       </c>
       <c r="J15" t="n">
-        <v>10.99993501686882</v>
+        <v>10.73945633714752</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9555549808518684</v>
+        <v>0.9542356171397176</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.995410253210066</v>
       </c>
       <c r="M15" t="n">
-        <v>8.349262634948227</v>
+        <v>9.917891243365998</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09164625960422364</v>
+        <v>0.08317011808651205</v>
       </c>
       <c r="O15" t="n">
-        <v>1.20046845338148</v>
+        <v>0.1728431967396417</v>
       </c>
       <c r="P15" t="n">
-        <v>3.172642260236739</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05403070916658304</v>
+        <v>0.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.715579430218447</v>
+        <v>0.1</v>
       </c>
       <c r="S15" t="n">
-        <v>6.347891793461165</v>
+        <v>6.188973974787249</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003821010561348317</v>
+        <v>0.09955605631091599</v>
       </c>
       <c r="U15" t="n">
-        <v>1.70503437508031</v>
+        <v>0.7878680884816267</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06020139566156194</v>
+        <v>0.06031319999175923</v>
       </c>
       <c r="C16" t="n">
-        <v>2.192192192192192</v>
+        <v>2.212212212212212</v>
       </c>
       <c r="D16" t="n">
-        <v>4.200907508176788</v>
+        <v>3.999612494689053</v>
       </c>
       <c r="E16" t="n">
         <v>0.5205205205205206</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01150146042116229</v>
+        <v>0.01384750382247643</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0603881608049576</v>
+        <v>0.0617596253977192</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5062271891023181</v>
+        <v>0.5132782003833705</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1673625687897681</v>
+        <v>0.1675798333046695</v>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>14.98545152529093</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9538598868356067</v>
+        <v>0.9501657179816493</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.510041663598665</v>
+        <v>3.107705372545897</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002517776193728162</v>
+        <v>0.001</v>
       </c>
       <c r="O16" t="n">
-        <v>1.774258697098517</v>
+        <v>0.1</v>
       </c>
       <c r="P16" t="n">
-        <v>6.630306710479767</v>
+        <v>0.8074677267675336</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07316220301695267</v>
+        <v>0.005205521394258046</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1018398720774218</v>
+        <v>0.6693981732493005</v>
       </c>
       <c r="S16" t="n">
-        <v>8.294647353522169</v>
+        <v>1.106799595723885</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1</v>
+        <v>0.08412437301239928</v>
       </c>
       <c r="U16" t="n">
-        <v>1.552394624910206</v>
+        <v>0.1020599124816845</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06001674267097669</v>
+        <v>0.03273974767567204</v>
       </c>
       <c r="C17" t="n">
-        <v>2.182182182182182</v>
+        <v>1.141141141141141</v>
       </c>
       <c r="D17" t="n">
-        <v>4.219893444779177</v>
+        <v>0.4447246690848061</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01118319814332932</v>
+        <v>0.01369184879406536</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0602135724476011</v>
+        <v>0.08239757407325607</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5048020468726054</v>
+        <v>0.5688726713493377</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1673559918853599</v>
+        <v>0.1856310846625691</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>10.76017518549388</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9541941236288266</v>
+        <v>0.9552175037883643</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4.999512473182223</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1</v>
+        <v>9.614807911846119</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02363611621317994</v>
+        <v>0.09781272586215864</v>
       </c>
       <c r="O17" t="n">
-        <v>1.984781853500183</v>
+        <v>1.121625538766308</v>
       </c>
       <c r="P17" t="n">
-        <v>4.680246639968741</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09969020170551121</v>
+        <v>0.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.249360909555594</v>
+        <v>0.1047681885132806</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1</v>
+        <v>5.172278695559975</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001</v>
+        <v>0.08687194729750924</v>
       </c>
       <c r="U17" t="n">
-        <v>0.394340415977431</v>
+        <v>1.059813051889787</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03236552318937415</v>
+        <v>0.05968414787925377</v>
       </c>
       <c r="C18" t="n">
-        <v>1.131131131131131</v>
+        <v>2.182182182182182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4018984296835448</v>
+        <v>4.004791293967425</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01478304192542558</v>
+        <v>0.01206811187155292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08177748316029373</v>
+        <v>0.06241728408501208</v>
       </c>
       <c r="H18" t="n">
-        <v>0.563229253894845</v>
+        <v>0.5104278628776804</v>
       </c>
       <c r="I18" t="n">
-        <v>0.185204482065365</v>
+        <v>0.1677851457345118</v>
       </c>
       <c r="J18" t="n">
-        <v>10.84006406545394</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>0.954370655204042</v>
+        <v>0.9528366194899857</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.417344641814022</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1</v>
+        <v>0.03850004598059429</v>
       </c>
       <c r="O18" t="n">
-        <v>1.999986502209704</v>
+        <v>0.8502818585324741</v>
       </c>
       <c r="P18" t="n">
-        <v>2.831554882629385</v>
+        <v>9.307235470355563</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02422660886811481</v>
+        <v>0.07406587611428558</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8025056774834853</v>
+        <v>0.626133116944128</v>
       </c>
       <c r="S18" t="n">
-        <v>1.530359106868268</v>
+        <v>0.1</v>
       </c>
       <c r="T18" t="n">
-        <v>0.09879813992296933</v>
+        <v>0.09980337471374806</v>
       </c>
       <c r="U18" t="n">
-        <v>0.519500437897647</v>
+        <v>1.120717357132477</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03242657210694691</v>
+        <v>0.0326937894337338</v>
       </c>
       <c r="C19" t="n">
-        <v>1.111111111111111</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6587254228989758</v>
+        <v>0.3076496645961546</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0133767388207527</v>
+        <v>0.0149410332102837</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07973325272017008</v>
+        <v>0.08342844010445889</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5605666348403807</v>
+        <v>0.5703264293927811</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1841629735142835</v>
+        <v>0.1859973515699774</v>
       </c>
       <c r="J19" t="n">
-        <v>10.99111653121849</v>
+        <v>10.71224760787502</v>
       </c>
       <c r="K19" t="n">
-        <v>0.955799075425263</v>
+        <v>0.9542800116128112</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.999501363932119</v>
       </c>
       <c r="M19" t="n">
-        <v>9.049504483726123</v>
+        <v>0.1986073508488544</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04801566554044508</v>
+        <v>0.09223315157658987</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6109767183643</v>
+        <v>1.495427063228778</v>
       </c>
       <c r="P19" t="n">
-        <v>6.151660957891424</v>
+        <v>7.996296716404725</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08071716997407993</v>
+        <v>0.04633362172420943</v>
       </c>
       <c r="R19" t="n">
-        <v>1.322595729551953</v>
+        <v>0.1</v>
       </c>
       <c r="S19" t="n">
-        <v>6.696661861463282</v>
+        <v>6.144293392297841</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1</v>
+        <v>0.002093777167395658</v>
       </c>
       <c r="U19" t="n">
-        <v>1.283129644883592</v>
+        <v>1.831211266663799</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06032694513643916</v>
+        <v>0.03274467839259742</v>
       </c>
       <c r="C20" t="n">
-        <v>2.182182182182182</v>
+        <v>1.161161161161161</v>
       </c>
       <c r="D20" t="n">
-        <v>4.290366331247419</v>
+        <v>0.2117019632859929</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0108314070792191</v>
+        <v>0.01485447261633776</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06185328278890353</v>
+        <v>0.08418489308365772</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5154299422378166</v>
+        <v>0.5728627922866841</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1675088341734606</v>
+        <v>0.1864698757840026</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>10.62466056711352</v>
       </c>
       <c r="K20" t="n">
-        <v>0.954445858128172</v>
+        <v>0.954709362838293</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.995602946359444</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>0.4385238580294392</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03181773583079871</v>
+        <v>0.01290277843826062</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0.1672819900776495</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2083307431294079</v>
+        <v>6.88655426665908</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1</v>
+        <v>0.01244303054487013</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8288898226176299</v>
+        <v>0.3651017627542094</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1013970321458424</v>
+        <v>8.306155119108677</v>
       </c>
       <c r="T20" t="n">
-        <v>0.001143423299577273</v>
+        <v>0.001564700258982535</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1</v>
+        <v>1.942540107332145</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03242494222962919</v>
+        <v>0.03244130951624886</v>
       </c>
       <c r="C21" t="n">
-        <v>1.111111111111111</v>
+        <v>1.121121121121121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6669450252805298</v>
+        <v>0.5347803061385381</v>
       </c>
       <c r="E21" t="n">
         <v>0.7307307307307307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01204872048217076</v>
+        <v>0.01396709509393107</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07973291041299066</v>
+        <v>0.08116883950715931</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5593621662911976</v>
+        <v>0.5641542296337603</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1845890451089468</v>
+        <v>0.1847233749402492</v>
       </c>
       <c r="J21" t="n">
-        <v>10.90690949693979</v>
+        <v>10.91124077266304</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9572569312694506</v>
+        <v>0.9554130791740931</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>8.328652178563653</v>
+        <v>6.085298512615624</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05049460262100704</v>
+        <v>0.001</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1030389433720878</v>
+        <v>0.562991082222425</v>
       </c>
       <c r="P21" t="n">
-        <v>8.877251036147435</v>
+        <v>6.78642186561629</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03150091355484089</v>
+        <v>0.004892012643435888</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1</v>
+        <v>1.313959446595274</v>
       </c>
       <c r="S21" t="n">
-        <v>4.504582030936285</v>
+        <v>8.67496518547792</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04204732852618626</v>
+        <v>0.001000662929637716</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9451800418977248</v>
+        <v>1.990615514722605</v>
       </c>
     </row>
   </sheetData>
